--- a/LiyaCrafterAutomation/tests/testdata/InsurancePrompts.xlsx
+++ b/LiyaCrafterAutomation/tests/testdata/InsurancePrompts.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Initiatives\PythonProjects\LiyaCrafterAutomation\tests\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C124B0-66D1-4005-82F2-3F8C9597D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFAE5D3-69FA-4290-9E52-1B4CEC197747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{6F1A2417-75CB-4429-9C58-88AC0BB47F54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{6F1A2417-75CB-4429-9C58-88AC0BB47F54}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prompts" sheetId="1" r:id="rId1"/>
+    <sheet name="Semantics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -53,13 +54,94 @@
     <t>test_verifyInsurancePrompt1</t>
   </si>
   <si>
-    <t>Insurance</t>
-  </si>
-  <si>
     <t>What are the sales record for past year</t>
   </si>
   <si>
-    <t>Finance</t>
+    <t>What are the sales record for past quarter</t>
+  </si>
+  <si>
+    <t>test_verifyInsurancePrompt2</t>
+  </si>
+  <si>
+    <t>cementdemo</t>
+  </si>
+  <si>
+    <t>demo_retail</t>
+  </si>
+  <si>
+    <t>Show me the Total Net Sales by Month with units sold and Year.</t>
+  </si>
+  <si>
+    <t>Show me Net Sales and Units Sold by Category and subcategory.</t>
+  </si>
+  <si>
+    <t>Show me Net Sales and Units Sold by Category and subcategory against month and year.</t>
+  </si>
+  <si>
+    <t>filter for the month of march.</t>
+  </si>
+  <si>
+    <t>Identify our top 10 customers by calculating the Average Order Value (AOV = AVG(SalesAmount))</t>
+  </si>
+  <si>
+    <t>Show me the Year-to-Date total Net Sales and Quantity Sold by Store</t>
+  </si>
+  <si>
+    <t>Compare sales of each product based on discount (DiscountPercent vs Net Sales)</t>
+  </si>
+  <si>
+    <t>Show Profit and Margin % by Category</t>
+  </si>
+  <si>
+    <t>Show Profit and Margin % by Category and subcategory</t>
+  </si>
+  <si>
+    <t>Semantic Views</t>
+  </si>
+  <si>
+    <t>test_verifyInsurancePrompt3</t>
+  </si>
+  <si>
+    <t>test_verifyInsurancePrompt4</t>
+  </si>
+  <si>
+    <t>test_verifyInsurancePrompt5</t>
+  </si>
+  <si>
+    <t>test_verifyInsurancePrompt6</t>
+  </si>
+  <si>
+    <t>test_verifyInsurancePrompt7</t>
+  </si>
+  <si>
+    <t>test_verifyInsurancePrompt8</t>
+  </si>
+  <si>
+    <t>test_verifyInsurancePrompt9</t>
+  </si>
+  <si>
+    <t>test_verifyInsuranceSemantic1</t>
+  </si>
+  <si>
+    <t>SalesByQty</t>
+  </si>
+  <si>
+    <t>discount vs sales</t>
+  </si>
+  <si>
+    <t>YTD Net Sales</t>
+  </si>
+  <si>
+    <t>Sales Comparision</t>
+  </si>
+  <si>
+    <t>test_verifyInsuranceSemantic2</t>
+  </si>
+  <si>
+    <t>test_verifyInsuranceSemantic3</t>
+  </si>
+  <si>
+    <t>test_verifyInsuranceSemantic4</t>
   </si>
 </sst>
 </file>
@@ -431,17 +513,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6769679F-A5A2-44BC-8120-77112FCB5E0B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -463,21 +546,177 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA7DB97-9927-4225-8CCB-9B6CDB7C57BF}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
